--- a/medicine/Enfance/Frank_Bonham/Frank_Bonham.xlsx
+++ b/medicine/Enfance/Frank_Bonham/Frank_Bonham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Bonham, né le 25 février 1914 à Los Angeles en Californie et mort en 1988, est un écrivain américain, auteur de western, de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l'université de Californie à Los Angeles. 
 Il publie une première nouvelle en septembre 1936, mais ne se lance vraiment en littérature qu'avec la publication de nombreuses nouvelles dans des pulps à partir de 1941. 
-En 1948, il publie son premier roman Lost Stage Valley, adapté au cinéma en 1950 par Ralph Murphy sous le titre Les Écumeurs des Monts Apaches (it) (Stage to Tucson). Auteur d’un grand nombre de westerns, il écrit quelques romans policiers, dont Tour de vices (By Her Own Hand), traduit en français. Il publie également des romans pour la jeunesse qui sont, selon Claude Mesplède et Jean-Jacques Schleret, « de remarquables romans pour adolescents qui traitent du problème de la délinquance dans les milieux de minorités américaines »[1]. L'un de ses romans pour la jeunesse, The Missing Persons League (1976), a été traduit en français chez Hachette sous le titre La Ligue des disparus.
+En 1948, il publie son premier roman Lost Stage Valley, adapté au cinéma en 1950 par Ralph Murphy sous le titre Les Écumeurs des Monts Apaches (it) (Stage to Tucson). Auteur d’un grand nombre de westerns, il écrit quelques romans policiers, dont Tour de vices (By Her Own Hand), traduit en français. Il publie également des romans pour la jeunesse qui sont, selon Claude Mesplède et Jean-Jacques Schleret, « de remarquables romans pour adolescents qui traitent du problème de la délinquance dans les milieux de minorités américaines ». L'un de ses romans pour la jeunesse, The Missing Persons League (1976), a été traduit en français chez Hachette sous le titre La Ligue des disparus.
 </t>
         </is>
       </c>
@@ -546,7 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romans
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Lost Stage Valley (1948)
 Snaketrack (1952)
 Blood on the Land (1955)
@@ -598,8 +618,43 @@
 The Eye of the Hunter (1989)
 Furnace Flat (2000)
 Mission Creek (2011), édition posthume du court roman Mission Creek et de la longue nouvelle Rodeo Killer, parue en 1942.
-Recueils de nouvelles (anthologies posthumes)
-The Best Western Stories of Frank Bonham (1989)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frank_Bonham</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_Bonham</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles (anthologies posthumes)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Best Western Stories of Frank Bonham (1989)
 One Ride Too Many: And Twelve Other Action-Packed Stories of the Wild West (1995)
 The Canon of Maverick Brands: A Western Trio (1997)
 Stage Trails West: Western Stories (2002)
@@ -607,8 +662,43 @@
 Outcasts of Rebel Creek: A Western Quartet (2004)
 Dakota Man: Western Stories (2007)
 Devil's Graze: Western Stories (2008)
-The Dark Border: A Western Quartet (2009)
-Nouvelles
+The Dark Border: A Western Quartet (2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frank_Bonham</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_Bonham</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Green Parrot (1936)
 Renegade Reckoning (1941)
 The Golden Bucker of the Rafter B (1941)
@@ -749,66 +839,107 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Frank_Bonham</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Frank_Bonham</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Au cinéma
-1950 : Les Écumeurs des Monts Apaches (it) (Stage to Tucson), film américain réalisé par Ralph Murphy, adaptation du roman Lost Stage Valley (1948), avec Rod Cameron
-À la télévision
-1958 : The Restless Gun (en) - Saison 2, épisode 14 : The Way Back, réalisé par Edward Ludwig, avec John Payne
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1950 : Les Écumeurs des Monts Apaches (it) (Stage to Tucson), film américain réalisé par Ralph Murphy, adaptation du roman Lost Stage Valley (1948), avec Rod Cameron</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Frank_Bonham</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_Bonham</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1958 : The Restless Gun (en) - Saison 2, épisode 14 : The Way Back, réalisé par Edward Ludwig, avec John Payne
 1959 : Shotgun Slade (en) - Saison 1, épisode 5 : Barbed Wire Keep Out, réalisé par Sidney Salkow, avec Scott Brady
 1960 : Bronco - Saison 3, épisode 1 : The Mustangers, réalisé par Robert Altman, avec Ty Hardin</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Frank_Bonham</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Frank_Bonham</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Claude Mesplède, Les années "Série noire" : bibliographie critique d'une collection policière, vol. 2 : 1959-1966, Amiens, Editions Encrage, coll. « Travaux » (no 17), 1993, 4 p. (ISBN 978-2-906389-43-4).
 Claude Mesplède et Jean-Jacques Schleret, SN, voyage au bout de la Noire : inventaire de 732 auteurs et de leurs œuvres publiés en séries Noire et Blème : suivi d'une filmographie complète, Paris, Futuropolis, 1982, 476 p. (OCLC 11972030), p. 38.</t>
